--- a/Aquabox_pico/Hardware/Identificacao_GPIOs.xlsx
+++ b/Aquabox_pico/Hardware/Identificacao_GPIOs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioGit\Embarcatech\Aquabox_pico\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034B0B50-C95C-45F0-A85E-863423DC581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3A5CA-17CE-40B5-97A4-6841F4222296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{088BD24A-FF7C-422D-AD8A-3645227017AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>Sensor de nível alto instalado na caixa d'água</t>
+  </si>
+  <si>
+    <t>Pushbutton vermelho</t>
+  </si>
+  <si>
+    <t>Pushbutton verde</t>
+  </si>
+  <si>
+    <t>Pushbutton amarelo</t>
+  </si>
+  <si>
+    <t>Pushbutton azul</t>
+  </si>
+  <si>
+    <t>Botão para seleção no menu de opções</t>
+  </si>
+  <si>
+    <t>Botão para retornar a tela inicial do relógio</t>
+  </si>
+  <si>
+    <t>Botão para seleção de subitem do menu de opções</t>
+  </si>
+  <si>
+    <t>Botão para entrada de dados de configuração</t>
   </si>
 </sst>
 </file>
@@ -536,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FFF972-9E47-489F-99F1-A699774A2337}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,14 +788,70 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3">
         <v>19</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Aquabox_pico/Hardware/Identificacao_GPIOs.xlsx
+++ b/Aquabox_pico/Hardware/Identificacao_GPIOs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioGit\Embarcatech\Aquabox_pico\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3A5CA-17CE-40B5-97A4-6841F4222296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338FE4AA-7B24-4EAF-99F9-12CBD1B3E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{088BD24A-FF7C-422D-AD8A-3645227017AA}"/>
+    <workbookView xWindow="-24120" yWindow="-1020" windowWidth="24240" windowHeight="13020" xr2:uid="{088BD24A-FF7C-422D-AD8A-3645227017AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -138,16 +138,16 @@
     <t>Pushbutton azul</t>
   </si>
   <si>
-    <t>Botão para seleção no menu de opções</t>
-  </si>
-  <si>
     <t>Botão para retornar a tela inicial do relógio</t>
   </si>
   <si>
-    <t>Botão para seleção de subitem do menu de opções</t>
-  </si>
-  <si>
     <t>Botão para entrada de dados de configuração</t>
+  </si>
+  <si>
+    <t>Botão para menu de opções</t>
+  </si>
+  <si>
+    <t>Botão para seleção de opções</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,7 +245,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +562,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,21 +808,21 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>38</v>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,21 +836,21 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="3">
         <v>11</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>40</v>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Aquabox_pico/Hardware/Identificacao_GPIOs.xlsx
+++ b/Aquabox_pico/Hardware/Identificacao_GPIOs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioGit\Embarcatech\Aquabox_pico\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338FE4AA-7B24-4EAF-99F9-12CBD1B3E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E671F47-AEE6-4D5F-A60B-E00428CC5CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1020" windowWidth="24240" windowHeight="13020" xr2:uid="{088BD24A-FF7C-422D-AD8A-3645227017AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{088BD24A-FF7C-422D-AD8A-3645227017AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Pushbutton azul</t>
   </si>
   <si>
-    <t>Botão para retornar a tela inicial do relógio</t>
-  </si>
-  <si>
     <t>Botão para entrada de dados de configuração</t>
   </si>
   <si>
@@ -148,6 +145,24 @@
   </si>
   <si>
     <t>Botão para seleção de opções</t>
+  </si>
+  <si>
+    <t>EEPROM - SDA</t>
+  </si>
+  <si>
+    <t>Pushbutton RESET</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>Botão de reset</t>
+  </si>
+  <si>
+    <t>Botão para retornar a tela inicial</t>
+  </si>
+  <si>
+    <t>EEPROM - SCL</t>
   </si>
 </sst>
 </file>
@@ -199,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,11 +237,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,7 +377,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,10 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FFF972-9E47-489F-99F1-A699774A2337}">
-  <dimension ref="A1:D21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,21 +749,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -597,12 +772,12 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -611,12 +786,12 @@
       <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -625,12 +800,12 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -639,12 +814,12 @@
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -653,12 +828,12 @@
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -667,12 +842,12 @@
       <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -681,12 +856,12 @@
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -695,12 +870,12 @@
       <c r="C10" s="5">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -709,12 +884,12 @@
       <c r="C11" s="3">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -723,12 +898,12 @@
       <c r="C12" s="5">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -737,12 +912,12 @@
       <c r="C13" s="3">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -751,12 +926,12 @@
       <c r="C14" s="5">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -765,40 +940,40 @@
       <c r="C15" s="3">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="5">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -807,12 +982,12 @@
       <c r="C18" s="5">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -821,12 +996,12 @@
       <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
+      <c r="D19" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -835,12 +1010,12 @@
       <c r="C20" s="5">
         <v>10</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -849,8 +1024,50 @@
       <c r="C21" s="3">
         <v>11</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
+      <c r="D21" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -858,5 +1075,6 @@
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>